--- a/Lab02/homeword/top_song.xlsx
+++ b/Lab02/homeword/top_song.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="19815" windowHeight="8640"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pyexcel_sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>artist</t>
   </si>
@@ -254,20 +253,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -283,15 +281,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -579,19 +583,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -607,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -615,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -623,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -631,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -639,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -647,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -655,7 +658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -663,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -671,7 +674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -679,7 +682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -687,7 +690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -695,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -703,7 +706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -711,7 +714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -719,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -727,7 +730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -735,7 +738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -743,7 +746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -751,7 +754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -759,7 +762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -767,7 +770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -775,7 +778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -783,7 +786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -791,7 +794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -799,7 +802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -807,7 +810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -815,7 +818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -823,7 +826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -831,7 +834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -839,7 +842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -847,7 +850,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -855,7 +858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -863,7 +866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -871,7 +874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -879,7 +882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -887,7 +890,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -895,7 +898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -903,7 +906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -912,5 +915,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>